--- a/db_decreto10.xlsx
+++ b/db_decreto10.xlsx
@@ -10502,7 +10502,7 @@
         <v/>
       </c>
       <c r="M4" s="79" t="n">
-        <v>46080</v>
+        <v>46052</v>
       </c>
       <c r="N4" s="82">
         <f>IF(ISBLANK(M4),L4,M4)</f>

--- a/db_decreto10.xlsx
+++ b/db_decreto10.xlsx
@@ -10502,7 +10502,7 @@
         <v/>
       </c>
       <c r="M4" s="79" t="n">
-        <v>46052</v>
+        <v>46110</v>
       </c>
       <c r="N4" s="82">
         <f>IF(ISBLANK(M4),L4,M4)</f>

--- a/db_decreto10.xlsx
+++ b/db_decreto10.xlsx
@@ -10502,7 +10502,7 @@
         <v/>
       </c>
       <c r="M4" s="79" t="n">
-        <v>46110</v>
+        <v>46108</v>
       </c>
       <c r="N4" s="82">
         <f>IF(ISBLANK(M4),L4,M4)</f>

--- a/db_decreto10.xlsx
+++ b/db_decreto10.xlsx
@@ -10502,7 +10502,7 @@
         <v/>
       </c>
       <c r="M4" s="79" t="n">
-        <v>46108</v>
+        <v>46052</v>
       </c>
       <c r="N4" s="82">
         <f>IF(ISBLANK(M4),L4,M4)</f>

--- a/db_decreto10.xlsx
+++ b/db_decreto10.xlsx
@@ -10502,7 +10502,7 @@
         <v/>
       </c>
       <c r="M4" s="79" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="N4" s="82">
         <f>IF(ISBLANK(M4),L4,M4)</f>

--- a/db_decreto10.xlsx
+++ b/db_decreto10.xlsx
@@ -10502,7 +10502,7 @@
         <v/>
       </c>
       <c r="M4" s="79" t="n">
-        <v>46053</v>
+        <v>46080</v>
       </c>
       <c r="N4" s="82">
         <f>IF(ISBLANK(M4),L4,M4)</f>

--- a/db_decreto10.xlsx
+++ b/db_decreto10.xlsx
@@ -10502,7 +10502,7 @@
         <v/>
       </c>
       <c r="M4" s="79" t="n">
-        <v>46080</v>
+        <v>46055</v>
       </c>
       <c r="N4" s="82">
         <f>IF(ISBLANK(M4),L4,M4)</f>

--- a/db_decreto10.xlsx
+++ b/db_decreto10.xlsx
@@ -10502,7 +10502,7 @@
         <v/>
       </c>
       <c r="M4" s="79" t="n">
-        <v>46052</v>
+        <v>46055</v>
       </c>
       <c r="N4" s="82">
         <f>IF(ISBLANK(M4),L4,M4)</f>

--- a/db_decreto10.xlsx
+++ b/db_decreto10.xlsx
@@ -10502,7 +10502,7 @@
         <v/>
       </c>
       <c r="M4" s="79" t="n">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="N4" s="82">
         <f>IF(ISBLANK(M4),L4,M4)</f>

--- a/db_decreto10.xlsx
+++ b/db_decreto10.xlsx
@@ -10502,7 +10502,7 @@
         <v/>
       </c>
       <c r="M4" s="79" t="n">
-        <v>46056</v>
+        <v>46055</v>
       </c>
       <c r="N4" s="82">
         <f>IF(ISBLANK(M4),L4,M4)</f>

--- a/db_decreto10.xlsx
+++ b/db_decreto10.xlsx
@@ -10502,7 +10502,7 @@
         <v/>
       </c>
       <c r="M4" s="79" t="n">
-        <v>46055</v>
+        <v>46052</v>
       </c>
       <c r="N4" s="82">
         <f>IF(ISBLANK(M4),L4,M4)</f>
